--- a/xlsx/合法性_intext.xlsx
+++ b/xlsx/合法性_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>合法性</t>
   </si>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%A8%81</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%A2%E5%8A%9B%E7%AF%84%E5%9C%8D</t>
   </si>
   <si>
-    <t>勢力範圍</t>
+    <t>势力范围</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>道德哲學</t>
+    <t>道德哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -95,25 +95,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>越南民主共和國</t>
+    <t>越南民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E6%88%B0</t>
   </si>
   <si>
-    <t>宣戰</t>
+    <t>宣战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E6%94%BF%E5%8F%98</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>啟蒙時期</t>
+    <t>启蒙时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
@@ -185,9 +185,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E5%93%B2%E5%AD%A6</t>
   </si>
   <si>
-    <t>道德哲学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%C2%B7%E9%9F%A6%E4%BC%AF</t>
   </si>
   <si>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%96%A9%C2%B7%E5%B8%95%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>羅薩·帕克斯</t>
+    <t>罗萨·帕克斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -239,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>選舉制度</t>
+    <t>选举制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>古蘭經</t>
+    <t>古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E4%BD%93</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>共產主義國家</t>
+    <t>共产主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -281,13 +278,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
   </si>
   <si>
-    <t>納粹黨</t>
+    <t>纳粹党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E9%BB%A8</t>
   </si>
   <si>
-    <t>法西斯黨</t>
+    <t>法西斯党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%88%B6%E5%9B%BD%E5%AE%B6</t>
@@ -329,13 +326,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>君主政體</t>
+    <t>君主政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88</t>
   </si>
   <si>
-    <t>君權神授</t>
+    <t>君权神授</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
   </si>
   <si>
-    <t>經濟大蕭條</t>
+    <t>经济大萧条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -365,37 +362,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%AB%BE%E5%88%87%E7%89%B9</t>
   </si>
   <si>
-    <t>皮諾切特</t>
+    <t>皮诺切特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%B4%BE%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>少數派政府</t>
+    <t>少数派政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%91%AA%E5%85%B1%E5%92%8C</t>
   </si>
   <si>
-    <t>魏瑪共和</t>
+    <t>魏玛共和</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -419,19 +416,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
   </si>
   <si>
-    <t>約旦河西岸</t>
+    <t>约旦河西岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E5%9C%B0%E5%B8%B6</t>
   </si>
   <si>
-    <t>加沙地帶</t>
+    <t>加沙地带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E8%98%AD%E9%AB%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>戈蘭高地</t>
+    <t>戈兰高地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -449,37 +446,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E</t>
   </si>
   <si>
-    <t>格魯吉亞</t>
+    <t>格鲁吉亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國</t>
+    <t>朝鲜民主主义人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%B6%8A</t>
@@ -503,19 +500,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BE%B7</t>
   </si>
   <si>
-    <t>東德</t>
+    <t>东德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
+    <t>叙利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
+    <t>利比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%B5%B1</t>
   </si>
   <si>
-    <t>法統</t>
+    <t>法统</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1748,7 @@
         <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1777,10 +1774,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -1806,10 +1803,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1835,10 +1832,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1864,10 +1861,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>18</v>
@@ -1893,10 +1890,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>5</v>
@@ -1922,10 +1919,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1951,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>7</v>
@@ -1980,10 +1977,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2009,10 +2006,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2038,10 +2035,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
@@ -2067,10 +2064,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2096,10 +2093,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -2125,10 +2122,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2154,10 +2151,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>7</v>
@@ -2183,10 +2180,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2212,10 +2209,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2241,10 +2238,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2270,10 +2267,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2299,10 +2296,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2328,10 +2325,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2357,10 +2354,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>7</v>
@@ -2386,10 +2383,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2415,10 +2412,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2444,10 +2441,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2473,10 +2470,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2502,10 +2499,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2531,10 +2528,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2560,10 +2557,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2589,10 +2586,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2618,10 +2615,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2647,10 +2644,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2676,10 +2673,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2705,10 +2702,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2734,10 +2731,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2763,10 +2760,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2792,10 +2789,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2821,10 +2818,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2850,10 +2847,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2879,10 +2876,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2908,10 +2905,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2937,10 +2934,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2966,10 +2963,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2995,10 +2992,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3024,10 +3021,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3053,10 +3050,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3082,10 +3079,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3111,10 +3108,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3140,10 +3137,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3169,10 +3166,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3198,10 +3195,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3227,10 +3224,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3256,10 +3253,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3285,10 +3282,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3314,10 +3311,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3343,10 +3340,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3372,10 +3369,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3401,10 +3398,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3430,10 +3427,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -3459,10 +3456,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
